--- a/coding_stuff/python/opnepyexl/sample_for_test.xlsx
+++ b/coding_stuff/python/opnepyexl/sample_for_test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
@@ -108,21 +108,78 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -130,71 +187,29 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF0000EE"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -203,6 +218,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -214,8 +230,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
       </patternFill>
     </fill>
     <fill>
@@ -226,32 +266,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -310,24 +326,60 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="13" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="13" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -354,24 +406,24 @@
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Heading" xfId="20"/>
-    <cellStyle name="Heading 1" xfId="21"/>
-    <cellStyle name="Heading 2" xfId="22"/>
-    <cellStyle name="Text" xfId="23"/>
-    <cellStyle name="Note" xfId="24"/>
-    <cellStyle name="Footnote" xfId="25"/>
-    <cellStyle name="Hyperlink" xfId="26"/>
-    <cellStyle name="Status" xfId="27"/>
-    <cellStyle name="Good" xfId="28"/>
-    <cellStyle name="Neutral" xfId="29"/>
-    <cellStyle name="Bad" xfId="30"/>
-    <cellStyle name="Warning" xfId="31"/>
-    <cellStyle name="Error" xfId="32"/>
-    <cellStyle name="Accent" xfId="33"/>
-    <cellStyle name="Accent 1" xfId="34"/>
-    <cellStyle name="Accent 2" xfId="35"/>
-    <cellStyle name="Accent 3" xfId="36"/>
-    <cellStyle name="Result" xfId="37"/>
+    <cellStyle name="Accent 1 17" xfId="20"/>
+    <cellStyle name="Accent 16" xfId="21"/>
+    <cellStyle name="Accent 2 18" xfId="22"/>
+    <cellStyle name="Accent 3 19" xfId="23"/>
+    <cellStyle name="Bad 13" xfId="24"/>
+    <cellStyle name="Error 15" xfId="25"/>
+    <cellStyle name="Footnote 8" xfId="26"/>
+    <cellStyle name="Good 11" xfId="27"/>
+    <cellStyle name="Heading 1 4" xfId="28"/>
+    <cellStyle name="Heading 2 5" xfId="29"/>
+    <cellStyle name="Heading 3" xfId="30"/>
+    <cellStyle name="Hyperlink 9" xfId="31"/>
+    <cellStyle name="Neutral 12" xfId="32"/>
+    <cellStyle name="Note 7" xfId="33"/>
+    <cellStyle name="Result 20" xfId="34"/>
+    <cellStyle name="Status 10" xfId="35"/>
+    <cellStyle name="Text 6" xfId="36"/>
+    <cellStyle name="Warning 14" xfId="37"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -437,23 +489,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="134.22"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="3" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="56.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="45.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="35.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="33.9"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="82.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -610,8 +661,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
